--- a/20220822-0829/[AI]머신러닝_실습자료/[추가3] decision tree원리 이해하기.xlsx
+++ b/20220822-0829/[AI]머신러닝_실습자료/[추가3] decision tree원리 이해하기.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\1. 강의\1.4 기타\AIVLE 과정\AIVLE 2기\2.강의안\AI\05 - 머신러닝\실습파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\kt-aivle-python\20220822-0829\[AI]머신러닝_실습자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBC2648-8393-4796-8A10-372241AEE213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E3A34F-052A-4D67-A390-2EC23933DB19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{772FE87B-02BB-43F9-9671-DD03893C9E31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{772FE87B-02BB-43F9-9671-DD03893C9E31}"/>
   </bookViews>
   <sheets>
     <sheet name="지니계수" sheetId="3" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Pyes</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,6 +109,26 @@
   </si>
   <si>
     <t>몸통색깔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불순도가 부모보다 많이 떨어진 변수가 제일 좋음!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보증가량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보전달량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보획득량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부모의 불순도로부터 자식이 얼마나 해결했는가(클수록 좋음)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,12 +234,8 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -236,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,10 +269,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -312,8 +335,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="2030554"/>
-          <a:ext cx="5341320" cy="2420595"/>
+          <a:off x="0" y="2100739"/>
+          <a:ext cx="5225181" cy="2520858"/>
           <a:chOff x="7620" y="1471086"/>
           <a:chExt cx="5237769" cy="2473286"/>
         </a:xfrm>
@@ -1100,8 +1123,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1179471" y="1199745"/>
-          <a:ext cx="302519" cy="703661"/>
+          <a:off x="1163596" y="1239850"/>
+          <a:ext cx="302519" cy="733741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,8 +1431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1602891" y="1230225"/>
-          <a:ext cx="297771" cy="702569"/>
+          <a:off x="1570305" y="1277850"/>
+          <a:ext cx="297771" cy="725129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1452,8 +1475,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2024622" y="1202043"/>
-          <a:ext cx="313856" cy="703661"/>
+          <a:off x="1992036" y="1242148"/>
+          <a:ext cx="297146" cy="733741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,8 +1563,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2474859" y="1217283"/>
-          <a:ext cx="301435" cy="699996"/>
+          <a:off x="2425563" y="1264908"/>
+          <a:ext cx="301435" cy="722556"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,7 +1626,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>988907</xdr:colOff>
+      <xdr:colOff>988908</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>96085</xdr:rowOff>
     </xdr:to>
@@ -1661,6 +1684,534 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434473</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74847</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>202334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0A99C1-6DFC-47A5-8DDF-81A12E752089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614947" y="2729055"/>
+          <a:ext cx="308795" cy="735174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159084</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>467879</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>207682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20329A4B-0E52-467A-9573-C73A3677A9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1007979" y="2734403"/>
+          <a:ext cx="308795" cy="735174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565484</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>159646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205858</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711B1A4C-5415-45F9-93FC-602C62F472B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1414379" y="2746435"/>
+          <a:ext cx="308795" cy="735174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>296779</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF8A0A4-EE74-45B1-9942-C1D355935F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1814095" y="2765151"/>
+          <a:ext cx="308795" cy="735174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54811</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>197078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>363606</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5AF500-C6B5-439D-A55A-B0A4CDA71FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240548" y="2783867"/>
+          <a:ext cx="308795" cy="735174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319016</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603001</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>208669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F11BB16-FE05-4E1A-BBD2-2AF2A7AB326E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3173174" y="2743220"/>
+          <a:ext cx="283985" cy="727344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121773</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448636</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>220533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09792190-AE77-4BB4-9581-80FB6B07BB4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3644352" y="2750391"/>
+          <a:ext cx="326863" cy="732037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>642364</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266642</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD96B9B4-34A8-4DF5-A1A5-76BE8814C9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1491259" y="3713950"/>
+          <a:ext cx="292699" cy="749089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259891</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>562410</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB44842-2BA3-4705-9BB0-9C1923E55C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114049" y="3751776"/>
+          <a:ext cx="302519" cy="733741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>86723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00720C3D-B6B0-466C-BCAC-BA144F114D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3520758" y="3789776"/>
+          <a:ext cx="297771" cy="725129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419910</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48635</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE212220-B5F1-411C-A870-26868BDBC038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3942489" y="3754074"/>
+          <a:ext cx="297146" cy="733741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185016</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>73781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BB935D-F3CE-4157-B49A-21C0FF92A956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4376016" y="3776834"/>
+          <a:ext cx="301435" cy="722556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3278,56 +3829,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB52E2B-9BCA-4E0B-BD8A-E2A772B39D35}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="9" max="9" width="7.19921875" customWidth="1"/>
+    <col min="11" max="11" width="9.69921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="10">
+        <f>7/12</f>
+        <v>0.58333333333333337</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="10">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="10">
+        <f>1-((K5)^2+(K6)^2)</f>
+        <v>0.48611111111111105</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="K9" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="N8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
@@ -3336,12 +3902,15 @@
       <c r="N9" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="4" t="s">
@@ -3350,40 +3919,76 @@
       <c r="M10" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="O10" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="5"/>
+      <c r="K11" s="10">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L11" s="2">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M11" s="5">
+        <f>5/7*K11+2/7*L11</f>
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="5"/>
+      <c r="K12" s="10">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L12" s="2">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M12" s="5">
+        <f>1/5*K12+4/5*L12</f>
+        <v>0.56666666666666665</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
+      <c r="K13" s="10">
+        <f>1-((K11)^2+(K12)^2)</f>
+        <v>0.27777777777777768</v>
+      </c>
+      <c r="L13" s="10">
+        <f>1-((L11)^2+(L12)^2)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M13" s="5">
+        <f>6/12*K13+6/12*L13</f>
+        <v>0.36111111111111105</v>
+      </c>
+      <c r="N13" s="8">
+        <f>K7-M13</f>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="11" t="s">
         <v>7</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -3393,39 +3998,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="J16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="5"/>
+      <c r="K16" s="10">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L16" s="2">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M16" s="5">
+        <f>5/7*K16+2/7*L16</f>
+        <v>0.58730158730158732</v>
+      </c>
     </row>
-    <row r="17" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="8:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="5"/>
+      <c r="K17" s="10">
+        <f>4/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="L17" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M17" s="5">
+        <f>1/5*K17+4/5*L17</f>
+        <v>0.35555555555555557</v>
+      </c>
     </row>
-    <row r="18" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="8:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="9"/>
+      <c r="K18" s="10">
+        <f>1-((K16)^2+(K17)^2)</f>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="L18" s="10">
+        <f>1-((L16)^2+(L17)^2)</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="M18" s="5">
+        <f>9/12*K18+3/12*L18</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="N18" s="8">
+        <f>K7-M18</f>
+        <v>4.6296296296295947E-3</v>
+      </c>
     </row>
-    <row r="19" spans="10:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="8:14" x14ac:dyDescent="0.4">
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="10:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="8:14" x14ac:dyDescent="0.4">
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -3435,30 +4070,69 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="10:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="8:14" x14ac:dyDescent="0.4">
       <c r="J21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="5"/>
+      <c r="K21" s="10">
+        <f>6/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="L21" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="5">
+        <f>5/6*K21+1/6*L21</f>
+        <v>0.58333333333333337</v>
+      </c>
     </row>
-    <row r="22" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="8:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="5"/>
+      <c r="K22" s="10">
+        <f>4/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="5">
+        <f>4/5*K22+1/5*L22</f>
+        <v>0.42000000000000004</v>
+      </c>
     </row>
-    <row r="23" spans="10:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="8:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="9"/>
+      <c r="K23" s="10">
+        <f>1-((K21)^2+(K22)^2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="L23" s="10">
+        <f>1-((L21)^2+(L22)^2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="5">
+        <f>10/12*K23+2/12*L23</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="N23" s="8">
+        <f>K7-M23</f>
+        <v>2.7777777777777124E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.4">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3476,31 +4150,31 @@
       <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="10" max="10" width="4.25" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="15" max="15" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="10" max="10" width="4.19921875" customWidth="1"/>
+    <col min="13" max="13" width="8.3984375" customWidth="1"/>
+    <col min="15" max="15" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
@@ -3509,7 +4183,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
@@ -3518,7 +4192,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K7" s="2" t="s">
         <v>2</v>
       </c>
@@ -3527,7 +4201,7 @@
         <v>0.97986875665115269</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="L9" t="s">
         <v>14</v>
       </c>
@@ -3538,7 +4212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K10" s="4" t="s">
         <v>6</v>
       </c>
@@ -3552,7 +4226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K11" s="4" t="s">
         <v>0</v>
       </c>
@@ -3560,7 +4234,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K12" s="4" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +4242,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K13" s="4" t="s">
         <v>2</v>
       </c>
@@ -3577,10 +4251,10 @@
       <c r="N13" s="2"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K15" s="4" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K16" s="4" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +4276,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="17" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K17" s="4" t="s">
         <v>1</v>
       </c>
@@ -3610,7 +4284,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="18" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K18" s="4" t="s">
         <v>2</v>
       </c>
@@ -3619,10 +4293,10 @@
       <c r="N18" s="2"/>
       <c r="O18" s="7"/>
     </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="19" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="20" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K20" s="4" t="s">
         <v>6</v>
       </c>
@@ -3636,7 +4310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="21" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K21" s="4" t="s">
         <v>0</v>
       </c>
@@ -3644,7 +4318,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="22" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K22" s="4" t="s">
         <v>1</v>
       </c>
@@ -3652,7 +4326,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.6">
+    <row r="23" spans="11:15" x14ac:dyDescent="0.4">
       <c r="K23" s="4" t="s">
         <v>2</v>
       </c>
